--- a/Taxonomies/MostlyImpactData/GDACS-HIP.xlsx
+++ b/Taxonomies/MostlyImpactData/GDACS-HIP.xlsx
@@ -64,25 +64,7 @@
     <t xml:space="preserve">hazhmwind</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">MH0057,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">MH0059</t>
-    </r>
+    <t xml:space="preserve">MH0057:MH0059</t>
   </si>
   <si>
     <t xml:space="preserve">Violent Wind</t>
@@ -91,7 +73,7 @@
     <t xml:space="preserve">VW</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0054,MH0060</t>
+    <t xml:space="preserve">MH0054:MH0060</t>
   </si>
   <si>
     <t xml:space="preserve">Flood</t>
@@ -103,7 +85,7 @@
     <t xml:space="preserve">hazhmflood</t>
   </si>
   <si>
-    <t xml:space="preserve">MH0004,MH0005,MH0006,MH0007,MH0008,MH0012</t>
+    <t xml:space="preserve">MH0004:MH0005:MH0006:MH0007:MH0008:MH0012</t>
   </si>
   <si>
     <t xml:space="preserve">Volcanic eruption</t>
@@ -118,7 +100,7 @@
     <t xml:space="preserve">hazgeovolc</t>
   </si>
   <si>
-    <t xml:space="preserve">GH0012,GH0013,GH0009,GH0010</t>
+    <t xml:space="preserve">GH0012:GH0013:GH0009:GH0010</t>
   </si>
   <si>
     <t xml:space="preserve">Earthquake</t>
@@ -130,10 +112,10 @@
     <t xml:space="preserve">hazgeoseis</t>
   </si>
   <si>
-    <t xml:space="preserve">GH0001,GH0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GH0003,GH0004,GH0005,GH0006,GH0007</t>
+    <t xml:space="preserve">GH0001:GH0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GH0003:GH0004:GH0005:GH0006:GH0007</t>
   </si>
 </sst>
 </file>
@@ -143,7 +125,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -187,12 +169,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -237,11 +213,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -256,165 +236,165 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="C3:E3"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="2" sqref="E3:E7 F7 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="1" width="10.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
